--- a/medicine/Enfance/Lolita_Séchan/Lolita_Séchan.xlsx
+++ b/medicine/Enfance/Lolita_Séchan/Lolita_Séchan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lolita_S%C3%A9chan</t>
+          <t>Lolita_Séchan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lolita Séchan 9 août 1980 à Paris[1], est une autrice française de livres pour enfants et de bandes dessinées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lolita Séchan 9 août 1980 à Paris, est une autrice française de livres pour enfants et de bandes dessinées.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lolita_S%C3%A9chan</t>
+          <t>Lolita_Séchan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est la fille du chanteur auteur-compositeur-interprète Renaud et de Dominique Quilichini, et la filleule de Coluche. Renaud lui a consacré plusieurs chansons, notamment Morgane de toi[2], Mistral gagnant et L.O.L.I.T.A (Les Mômes et les Enfants d'abord !).
-Lolita Séchan a fait des études de lettres et de cinéma à Montréal durant trois ans[1]. Elle a été assistante sur le tournage du film Wanted, auquel son père a participé. Elle écrit des livres pour enfants et publie un roman graphique[3].
-En 2020, elle coécrit et illustre l'album Cachée ou pas, j’arrive ! avec Camille Jourdy. L'ouvrage est récompensé en 2021 d'une « mention » au prix international BolognaRagazzi[4], dans la catégorie Comics jeunes lecteurs, à la Foire du livre de jeunesse de Bologne.
-Vie privée
-Le 31 juillet 2009, elle épouse le chanteur auteur-compositeur-interprète français Renan Luce[5] puis donne naissance à une fille prénommée Héloïse, le 3 août 2011. Le couple se sépare en 2016[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est la fille du chanteur auteur-compositeur-interprète Renaud et de Dominique Quilichini, et la filleule de Coluche. Renaud lui a consacré plusieurs chansons, notamment Morgane de toi, Mistral gagnant et L.O.L.I.T.A (Les Mômes et les Enfants d'abord !).
+Lolita Séchan a fait des études de lettres et de cinéma à Montréal durant trois ans. Elle a été assistante sur le tournage du film Wanted, auquel son père a participé. Elle écrit des livres pour enfants et publie un roman graphique.
+En 2020, elle coécrit et illustre l'album Cachée ou pas, j’arrive ! avec Camille Jourdy. L'ouvrage est récompensé en 2021 d'une « mention » au prix international BolognaRagazzi, dans la catégorie Comics jeunes lecteurs, à la Foire du livre de jeunesse de Bologne.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lolita_S%C3%A9chan</t>
+          <t>Lolita_Séchan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,18 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les Cendres de maman  (ill. Lino), Montréal, Les 400 Coups, 2006, 62 p. (ISBN 2-89540-268-X)[7]
-Todo loco : Todo loco  (avec Emmanuel Grard), t. 1, Montréal, Les 400 Coups, coll. « Mécanique générale », 2009 (ISBN 978-2-922827-43-9 et 2-922827-43-7)
-Marshmalone, Paris, Helium, 2010 (ISBN 978-2-35851-036-3)[8],[9]
-Les Brumes de Sapa, Delcourt, 2016   (ISBN 978-2-7560-5126-0)[3]
-Une échappée de Bartok Biloba [10], Actes Sud, 2018
-Tout le monde devrait rester tranquille près d'un petit ruisseau et écouter, Actes Sud, 2018
-Lolita Séchan et Camille Jourdy, Cachée ou pas, j’arrive, Actes Sud, 2020 (ISBN 978-2-330-13015-2)</t>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 31 juillet 2009, elle épouse le chanteur auteur-compositeur-interprète français Renan Luce puis donne naissance à une fille prénommée Héloïse, le 3 août 2011. Le couple se sépare en 2016.
+</t>
         </is>
       </c>
     </row>
@@ -564,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lolita_S%C3%A9chan</t>
+          <t>Lolita_Séchan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,14 +592,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Cendres de maman  (ill. Lino), Montréal, Les 400 Coups, 2006, 62 p. (ISBN 2-89540-268-X)
+Todo loco : Todo loco  (avec Emmanuel Grard), t. 1, Montréal, Les 400 Coups, coll. « Mécanique générale », 2009 (ISBN 978-2-922827-43-9 et 2-922827-43-7)
+Marshmalone, Paris, Helium, 2010 (ISBN 978-2-35851-036-3),
+Les Brumes de Sapa, Delcourt, 2016   (ISBN 978-2-7560-5126-0)
+Une échappée de Bartok Biloba , Actes Sud, 2018
+Tout le monde devrait rester tranquille près d'un petit ruisseau et écouter, Actes Sud, 2018
+Lolita Séchan et Camille Jourdy, Cachée ou pas, j’arrive, Actes Sud, 2020 (ISBN 978-2-330-13015-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lolita_Séchan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lolita_S%C3%A9chan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2008 : Miss Space[11]
-2017 : Finaliste du Prix de la BD Fnac[12] pour Les Brumes de Sapa
-2021 :  « Mention » au prix BolognaRagazzi, catégorie Comics - Early Reader[4], Foire du livre de jeunesse de Bologne  pour Cachée ou pas j’arrive !, avec Camille Jourdy.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2008 : Miss Space
+2017 : Finaliste du Prix de la BD Fnac pour Les Brumes de Sapa
+2021 :  « Mention » au prix BolognaRagazzi, catégorie Comics - Early Reader, Foire du livre de jeunesse de Bologne  pour Cachée ou pas j’arrive !, avec Camille Jourdy.</t>
         </is>
       </c>
     </row>
